--- a/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/Metadata_table.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/Metadata_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\WG2_CDOM\Corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F732D-73E5-4301-9B0D-E0BF46B2B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{0B3F732D-73E5-4301-9B0D-E0BF46B2B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00878886-A653-4B0D-B009-EADF657D163C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09FA6DAC-5846-49A3-BFC7-766ED98A17CA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15588" windowHeight="11016" xr2:uid="{09FA6DAC-5846-49A3-BFC7-766ED98A17CA}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="180">
   <si>
     <t>index</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Sutton's Bay 15May24 B</t>
   </si>
   <si>
-    <t>SB215May24201s</t>
-  </si>
-  <si>
     <t>GB32 15May24</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>Whitefish Bay 16May24 1s</t>
   </si>
   <si>
-    <t>WF16May2421s</t>
-  </si>
-  <si>
     <t>SCS2 14May24</t>
   </si>
   <si>
@@ -566,10 +560,22 @@
     <t>GB 32 7Aug24 1s</t>
   </si>
   <si>
-    <t>GB3227Aug241s</t>
-  </si>
-  <si>
     <t>PosT20Sep24</t>
+  </si>
+  <si>
+    <t>GB327Aug241s</t>
+  </si>
+  <si>
+    <t>SB215May2401s</t>
+  </si>
+  <si>
+    <t>WF16May241s</t>
+  </si>
+  <si>
+    <t>WhiteFish Bay 13Aug24</t>
+  </si>
+  <si>
+    <t>WF13Aug24</t>
   </si>
 </sst>
 </file>
@@ -605,9 +611,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,6 +632,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,18 +955,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FDD409-D483-4213-8C54-80BD12B7A494}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1050,7 +1064,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1083,7 +1097,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1113,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1143,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1173,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1206,7 +1220,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1239,7 +1253,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1275,7 +1289,7 @@
         <v>6.3460000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1311,7 +1325,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1344,7 +1358,7 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1377,7 +1391,7 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1410,7 +1424,7 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1446,7 +1460,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1482,7 +1496,7 @@
         <v>1.821</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1518,7 +1532,7 @@
         <v>1.6619999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1554,7 +1568,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1587,7 +1601,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1620,7 +1634,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1653,7 +1667,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1689,7 +1703,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1725,7 +1739,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1761,7 +1775,7 @@
         <v>1.895</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1794,7 +1808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1824,7 +1838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1854,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1887,7 +1901,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1898,7 +1912,7 @@
       <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E29">
@@ -1920,7 +1934,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1953,7 +1967,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1986,7 +2000,7 @@
         <v>4.234</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2019,7 +2033,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2052,7 +2066,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2085,7 +2099,7 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2118,7 +2132,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2151,7 +2165,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2181,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2211,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2244,7 +2258,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2277,7 +2291,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2310,7 +2324,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2322,7 +2336,7 @@
         <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2343,7 +2357,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2352,10 +2366,10 @@
         <v>45483</v>
       </c>
       <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2376,7 +2390,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2385,10 +2399,10 @@
         <v>45483</v>
       </c>
       <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
         <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2409,7 +2423,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2418,10 +2432,10 @@
         <v>45483</v>
       </c>
       <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
         <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2442,7 +2456,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2451,10 +2465,10 @@
         <v>45483</v>
       </c>
       <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
         <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>107</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2475,7 +2489,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2484,10 +2498,10 @@
         <v>45483</v>
       </c>
       <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
         <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>109</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2508,7 +2522,7 @@
         <v>2.5459999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2517,10 +2531,10 @@
         <v>45483</v>
       </c>
       <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>111</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2541,7 +2555,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2550,10 +2564,10 @@
         <v>45483</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2574,7 +2588,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2583,10 +2597,10 @@
         <v>45483</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2607,7 +2621,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2616,10 +2630,10 @@
         <v>45483</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2640,7 +2654,7 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2649,10 +2663,10 @@
         <v>45483</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2673,7 +2687,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2682,10 +2696,10 @@
         <v>45483</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2706,7 +2720,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2715,10 +2729,10 @@
         <v>45483</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2739,7 +2753,7 @@
         <v>1.877</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2748,10 +2762,10 @@
         <v>45483</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2772,7 +2786,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2781,10 +2795,10 @@
         <v>45483</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2805,7 +2819,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2814,10 +2828,10 @@
         <v>45483</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2838,7 +2852,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2847,10 +2861,10 @@
         <v>45483</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2871,7 +2885,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2883,7 +2897,7 @@
         <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2901,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2913,7 +2927,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2931,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2940,10 +2954,10 @@
         <v>45554</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2964,7 +2978,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2973,10 +2987,10 @@
         <v>45554</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2997,7 +3011,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3006,10 +3020,10 @@
         <v>45554</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3030,7 +3044,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3039,10 +3053,10 @@
         <v>45554</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3063,7 +3077,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3072,10 +3086,10 @@
         <v>45554</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3096,7 +3110,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3105,10 +3119,10 @@
         <v>45554</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3126,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3135,10 +3149,10 @@
         <v>45554</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3159,7 +3173,7 @@
         <v>3.238</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ref="A68:A84" si="1">A67+1</f>
         <v>67</v>
@@ -3168,10 +3182,10 @@
         <v>45554</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3192,7 +3206,7 @@
         <v>5.9589999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3201,10 +3215,10 @@
         <v>45554</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3225,7 +3239,7 @@
         <v>4.2990000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3234,10 +3248,10 @@
         <v>45554</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3258,7 +3272,7 @@
         <v>2.3660000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3267,10 +3281,10 @@
         <v>45554</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3291,7 +3305,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3303,7 +3317,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3321,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3333,7 +3347,7 @@
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3351,7 +3365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3360,10 +3374,10 @@
         <v>45555</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3384,7 +3398,7 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3393,10 +3407,10 @@
         <v>45555</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3417,7 +3431,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3426,10 +3440,10 @@
         <v>45555</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3447,7 +3461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3456,10 +3470,10 @@
         <v>45555</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3480,7 +3494,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3489,10 +3503,10 @@
         <v>45555</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3513,7 +3527,7 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3522,10 +3536,10 @@
         <v>45555</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3543,7 +3557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3552,10 +3566,10 @@
         <v>45555</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3573,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3582,10 +3596,10 @@
         <v>45555</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3606,7 +3620,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3615,10 +3629,10 @@
         <v>45555</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3639,7 +3653,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3648,10 +3662,10 @@
         <v>45555</v>
       </c>
       <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
         <v>175</v>
-      </c>
-      <c r="D83" t="s">
-        <v>176</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3672,19 +3686,19 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3701,8 +3715,42 @@
       <c r="I84" t="s">
         <v>13</v>
       </c>
+      <c r="K84">
+        <v>1.573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" ref="A68:A85" si="2">A84+1</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45555</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>734.46807000000001</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/Metadata_table.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/Metadata_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\WG2_CDOM\Corrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{0B3F732D-73E5-4301-9B0D-E0BF46B2B143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00878886-A653-4B0D-B009-EADF657D163C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF466AF-BB7B-41C8-9D32-07FD8D2F10F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15588" windowHeight="11016" xr2:uid="{09FA6DAC-5846-49A3-BFC7-766ED98A17CA}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{09FA6DAC-5846-49A3-BFC7-766ED98A17CA}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +632,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,17 +953,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FDD409-D483-4213-8C54-80BD12B7A494}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1064,7 +1061,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1097,7 +1094,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1127,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1157,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1187,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1220,7 +1217,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1253,7 +1250,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1289,7 +1286,7 @@
         <v>6.3460000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1325,7 +1322,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1358,7 +1355,7 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1391,7 +1388,7 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1424,7 +1421,7 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1460,7 +1457,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1496,7 +1493,7 @@
         <v>1.821</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1532,7 +1529,7 @@
         <v>1.6619999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1568,7 +1565,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1601,7 +1598,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1634,7 +1631,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1667,7 +1664,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1703,7 +1700,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1739,7 +1736,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1775,7 +1772,7 @@
         <v>1.895</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1808,7 +1805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1838,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1868,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1901,7 +1898,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1934,7 +1931,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1967,7 +1964,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2000,7 +1997,7 @@
         <v>4.234</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2033,7 +2030,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2066,7 +2063,7 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2099,7 +2096,7 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2132,7 +2129,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2165,7 +2162,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2195,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2225,7 +2222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2258,7 +2255,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2291,7 +2288,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2324,7 +2321,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2357,7 +2354,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2390,7 +2387,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2423,7 +2420,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2456,7 +2453,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2489,7 +2486,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2522,7 +2519,7 @@
         <v>2.5459999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2555,7 +2552,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2588,7 +2585,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2621,7 +2618,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2654,7 +2651,7 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2687,7 +2684,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2720,7 +2717,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2753,7 +2750,7 @@
         <v>1.877</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2786,7 +2783,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2819,7 +2816,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2852,7 +2849,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2885,7 +2882,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2915,7 +2912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2945,7 +2942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2978,7 +2975,7 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3011,7 +3008,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3044,7 +3041,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3077,7 +3074,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3110,7 +3107,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3140,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3173,7 +3170,7 @@
         <v>3.238</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A84" si="1">A67+1</f>
         <v>67</v>
@@ -3206,7 +3203,7 @@
         <v>5.9589999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3239,7 +3236,7 @@
         <v>4.2990000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3272,7 +3269,7 @@
         <v>2.3660000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3305,7 +3302,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3335,7 +3332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3365,7 +3362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3398,7 +3395,7 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3431,7 +3428,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3461,7 +3458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3494,7 +3491,7 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3527,7 +3524,7 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3557,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3587,7 +3584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3620,7 +3617,7 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3653,7 +3650,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3686,7 +3683,7 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3719,9 +3716,9 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" ref="A68:A85" si="2">A84+1</f>
+        <f t="shared" ref="A85" si="2">A84+1</f>
         <v>84</v>
       </c>
       <c r="B85" s="1">
